--- a/demo.xlsx
+++ b/demo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>Ban</t>
   </si>
@@ -20,37 +20,461 @@
     <t>Subscriber</t>
   </si>
   <si>
+    <t>SMuser</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>PTN</t>
+  </si>
+  <si>
+    <t>ModelName</t>
+  </si>
+  <si>
+    <t>DeviceType</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
     <t>103562999</t>
   </si>
   <si>
     <t>06681029121</t>
   </si>
   <si>
+    <t>ONREG-17965</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>06681029121 06681029121</t>
+  </si>
+  <si>
+    <t>3107228850</t>
+  </si>
+  <si>
+    <t>iPhone 8 64GB</t>
+  </si>
+  <si>
+    <t>SMRTPH</t>
+  </si>
+  <si>
     <t>12104659121</t>
   </si>
   <si>
+    <t>3102136169</t>
+  </si>
+  <si>
+    <t>BYOSD iPhone 8 64GB</t>
+  </si>
+  <si>
     <t>18681029121</t>
   </si>
   <si>
+    <t>3107229982</t>
+  </si>
+  <si>
     <t>29749669121</t>
   </si>
   <si>
+    <t>3107220588</t>
+  </si>
+  <si>
+    <t>iPhone 7 32GB</t>
+  </si>
+  <si>
     <t>72104659121</t>
   </si>
   <si>
+    <t>3102136261</t>
+  </si>
+  <si>
     <t>99167677121</t>
   </si>
   <si>
+    <t>80339151221 80339151221</t>
+  </si>
+  <si>
+    <t>5188444640</t>
+  </si>
+  <si>
+    <t>iPhone 8 Plus 64GB</t>
+  </si>
+  <si>
     <t>434349902</t>
   </si>
   <si>
     <t>05409669121</t>
   </si>
   <si>
+    <t>AugUser040</t>
+  </si>
+  <si>
+    <t>TEST5IPHONE AUG01</t>
+  </si>
+  <si>
+    <t>2402100539</t>
+  </si>
+  <si>
+    <t>Apple Watch Series 4</t>
+  </si>
+  <si>
+    <t>CDNVOI</t>
+  </si>
+  <si>
     <t>54409669121</t>
   </si>
   <si>
+    <t>2402100538</t>
+  </si>
+  <si>
     <t>79298669121</t>
+  </si>
+  <si>
+    <t>2402100473</t>
+  </si>
+  <si>
+    <t>iPhone 6 16GB</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LOAN",
+      "contractId": "COS-F-618864",
+      "startDate": "2019-07-25",
+      "monthlyPayment": 6.67,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 9,
+      "durationInMonths": 3,
+      "timeRemainingInMonths": 6,
+      "loanSequenceNumber": 53513947,
+      "itemId": "SPHJ727BK1",
+      "itemName": "SAM J727 BLK XCVR SGL",
+      "loanAmount": 60,
+      "loanPaidAmount": 20.01,
+      "payOffAmount": 39.99,
+      "canPayoffLoan": true,
+      "flexLoanInd": true,
+      "flexLeaseNumber": "COS-L-H88020184"
+    },
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-H618866",
+      "startDate": "2019-07-15",
+      "monthlyPayment": 39.03,
+      "upfrontPayment": 81.0,
+      "contractTermInMonths": 12,
+      "durationInMonths": 3,
+      "timeRemainingInMonths": 9,
+      "purchaseOptionPrice": 90,
+      "extendedMonthly": 45,
+      "leaseSequenceNumber": 53510850,
+      "flexLeaseInd": false,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre M2M",
+      "amtFromCustToPurchase": 90,
+      "leaseUnbilledAmount": 0,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": false,
+      "itemId": "190198452023",
+      "itemName": "IPH 8 SILVER 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "PR-L-H638104",
+      "startDate": "2019-08-16",
+      "monthlyPayment": 16.23,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 24,
+      "durationInMonths": 2,
+      "timeRemainingInMonths": 22,
+      "purchaseOptionPrice": 75,
+      "extendedMonthly": 18.75,
+      "leaseSequenceNumber": 53518075,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 365.15,
+      "leaseUnbilledAmount": 351.69,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "IPH732GBSIL1",
+      "itemName": "IPHONE 7 SILVER 32GB SGL"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LOAN",
+      "contractId": "COS-F-619136",
+      "startDate": "2019-07-25",
+      "monthlyPayment": 6.67,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 9,
+      "durationInMonths": 3,
+      "timeRemainingInMonths": 6,
+      "loanSequenceNumber": 53513948,
+      "itemId": "SPHJ727BK1",
+      "itemName": "SAM J727 BLK XCVR SGL",
+      "loanAmount": 60,
+      "loanPaidAmount": 20.01,
+      "payOffAmount": 39.99,
+      "canPayoffLoan": true,
+      "flexLoanInd": true,
+      "flexLeaseNumber": "COS-L-H88020428"
+    },
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-H619138",
+      "startDate": "2019-07-16",
+      "monthlyPayment": 39.03,
+      "upfrontPayment": 81.0,
+      "contractTermInMonths": 12,
+      "durationInMonths": 3,
+      "timeRemainingInMonths": 9,
+      "purchaseOptionPrice": 90,
+      "extendedMonthly": 45,
+      "leaseSequenceNumber": 53510939,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 435.76,
+      "leaseUnbilledAmount": 350.25,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198452023",
+      "itemName": "IPH 8 SILVER 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "PR-L-H638102",
+      "startDate": "2019-08-16",
+      "monthlyPayment": 14.54,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 24,
+      "durationInMonths": 2,
+      "timeRemainingInMonths": 22,
+      "purchaseOptionPrice": 75,
+      "extendedMonthly": 18.75,
+      "leaseSequenceNumber": 53518074,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 362.21,
+      "leaseUnbilledAmount": 317.51,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "IPH732GBSIL1",
+      "itemName": "IPHONE 7 SILVER 32GB SGL"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-H619198",
+      "startDate": "2019-07-16",
+      "monthlyPayment": 39.03,
+      "upfrontPayment": 81.0,
+      "contractTermInMonths": 12,
+      "durationInMonths": 3,
+      "timeRemainingInMonths": 9,
+      "purchaseOptionPrice": 90,
+      "extendedMonthly": 45,
+      "leaseSequenceNumber": 53510954,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 435.76,
+      "leaseUnbilledAmount": 350.25,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198452023",
+      "itemName": "IPH 8 SILVER 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "LSE-SDR001",
+      "startDate": "2018-03-18",
+      "monthlyPayment": 67.75,
+      "upfrontPayment": 67.75,
+      "contractTermInMonths": 18,
+      "durationInMonths": 19,
+      "timeRemainingInMonths": 0,
+      "purchaseOptionPrice": 0,
+      "extendedMonthly": 67.75,
+      "leaseSequenceNumber": 53517125,
+      "flexLeaseInd": false,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 1219.5,
+      "leaseUnbilledAmount": 1219.5,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "IPH7128BYBK1",
+      "itemName": "BYOSD IP 7 BLK 128 SGL"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "lease": false,
+  "leaseEligibleDate": "2020-07-01",
+  "installmentBilling": false,
+  "installmentBillingEligibleDate": "2020-07-01",
+  "subsidy": false,
+  "subsidyEligibleDate": "2021-01-01",
+  "eligible": false,
+  "earlyUpgradeEligible": false,
+  "hasMultipleContracts": true,
+  "jumpEligibleCustomer": false,
+  "jumpOnDemandEligible": false
+}</t>
+  </si>
+  <si>
+    <t>{
+  "lease": false,
+  "leaseEligibleDate": "2020-08-01",
+  "installmentBilling": false,
+  "installmentBillingEligibleDate": "2020-08-01",
+  "subsidy": false,
+  "subsidyEligibleDate": "2021-08-01",
+  "eligible": false,
+  "earlyUpgradeEligible": false,
+  "hasMultipleContracts": false,
+  "jumpEligibleCustomer": false,
+  "jumpOnDemandEligible": false
+}</t>
+  </si>
+  <si>
+    <t>{
+  "lease": false,
+  "leaseEligibleDate": "2021-08-01",
+  "installmentBilling": false,
+  "installmentBillingEligibleDate": "2021-08-01",
+  "subsidy": false,
+  "subsidyEligibleDate": "2021-08-01",
+  "eligible": false,
+  "earlyUpgradeEligible": false,
+  "hasMultipleContracts": false,
+  "jumpEligibleCustomer": false,
+  "jumpOnDemandEligible": false
+}</t>
+  </si>
+  <si>
+    <t>{
+  "lease": false,
+  "leaseEligibleDate": "2021-01-01",
+  "installmentBilling": false,
+  "installmentBillingEligibleDate": "2021-01-01",
+  "subsidy": false,
+  "subsidyEligibleDate": "2021-01-01",
+  "eligible": false,
+  "earlyUpgradeEligible": false,
+  "hasMultipleContracts": false,
+  "jumpEligibleCustomer": false,
+  "jumpOnDemandEligible": false
+}</t>
+  </si>
+  <si>
+    <t>{
+  "lease": false,
+  "leaseEligibleDate": "2020-10-01",
+  "installmentBilling": false,
+  "installmentBillingEligibleDate": "2020-10-01",
+  "subsidy": false,
+  "subsidyEligibleDate": "2020-10-01",
+  "eligible": false,
+  "earlyUpgradeEligible": false,
+  "hasMultipleContracts": false,
+  "jumpEligibleCustomer": false,
+  "jumpOnDemandEligible": false
+}</t>
+  </si>
+  <si>
+    <t>{
+  "lease": false,
+  "leaseEligibleDate": "2021-10-01",
+  "installmentBilling": false,
+  "installmentBillingEligibleDate": "2021-10-01",
+  "subsidy": false,
+  "subsidyEligibleDate": "2021-10-01",
+  "eligible": false,
+  "earlyUpgradeEligible": false,
+  "hasMultipleContracts": false,
+  "jumpEligibleCustomer": false,
+  "jumpOnDemandEligible": false
+}</t>
+  </si>
+  <si>
+    <t>{
+  "eligible": true,
+  "lease": true,
+  "leaseEligibleDate": "TODAY",
+  "installmentBilling": true,
+  "installmentBillingEligibleDate": "TODAY",
+  "subsidy": true,
+  "subsidyEligibleDate": "TODAY"
+}</t>
   </si>
 </sst>
 </file>
@@ -95,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,77 +532,317 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="157">
   <si>
     <t>Ban</t>
   </si>
@@ -44,184 +44,417 @@
     <t>Eligibility</t>
   </si>
   <si>
-    <t>103562999</t>
-  </si>
-  <si>
-    <t>06681029121</t>
-  </si>
-  <si>
-    <t>ONREG-17965</t>
+    <t>107198053</t>
+  </si>
+  <si>
+    <t>08072919121</t>
+  </si>
+  <si>
+    <t>ONREG-20535</t>
   </si>
   <si>
     <t>ACTIVE</t>
   </si>
   <si>
-    <t>06681029121 06681029121</t>
-  </si>
-  <si>
-    <t>3107228850</t>
+    <t>08072919121 08072919121</t>
+  </si>
+  <si>
+    <t>9408089593</t>
+  </si>
+  <si>
+    <t>iPhone XR 64GB</t>
+  </si>
+  <si>
+    <t>SMRTPH</t>
+  </si>
+  <si>
+    <t>08974201221</t>
+  </si>
+  <si>
+    <t>9405976276</t>
+  </si>
+  <si>
+    <t>09072919121</t>
+  </si>
+  <si>
+    <t>9408089598</t>
+  </si>
+  <si>
+    <t>iPhone XS Max 64GB</t>
+  </si>
+  <si>
+    <t>28012070221</t>
+  </si>
+  <si>
+    <t>9405974368</t>
+  </si>
+  <si>
+    <t>LG G Pad F2 8.0</t>
+  </si>
+  <si>
+    <t>TABLET</t>
+  </si>
+  <si>
+    <t>57734303121</t>
+  </si>
+  <si>
+    <t>57734303121 57734303121</t>
+  </si>
+  <si>
+    <t>2144570169</t>
+  </si>
+  <si>
+    <t>67734303121</t>
+  </si>
+  <si>
+    <t>67734303121 67734303121</t>
+  </si>
+  <si>
+    <t>2144571460</t>
+  </si>
+  <si>
+    <t>124473304</t>
+  </si>
+  <si>
+    <t>03085439121</t>
+  </si>
+  <si>
+    <t>ONREG-18520</t>
+  </si>
+  <si>
+    <t>67093994121 67093994121</t>
+  </si>
+  <si>
+    <t>9136094841</t>
+  </si>
+  <si>
+    <t>Airspan AU544</t>
+  </si>
+  <si>
+    <t>NODTVC</t>
+  </si>
+  <si>
+    <t>20917150221</t>
+  </si>
+  <si>
+    <t>20917150221 20917150221</t>
+  </si>
+  <si>
+    <t>9135748706</t>
+  </si>
+  <si>
+    <t>iPhone 6S 64GB</t>
+  </si>
+  <si>
+    <t>25380480011</t>
+  </si>
+  <si>
+    <t>25380480011 25380480011</t>
+  </si>
+  <si>
+    <t>9133028729</t>
   </si>
   <si>
     <t>iPhone 8 64GB</t>
   </si>
   <si>
-    <t>SMRTPH</t>
-  </si>
-  <si>
-    <t>12104659121</t>
-  </si>
-  <si>
-    <t>3102136169</t>
-  </si>
-  <si>
-    <t>BYOSD iPhone 8 64GB</t>
-  </si>
-  <si>
-    <t>18681029121</t>
-  </si>
-  <si>
-    <t>3107229982</t>
-  </si>
-  <si>
-    <t>29749669121</t>
-  </si>
-  <si>
-    <t>3107220588</t>
+    <t>35464152011</t>
+  </si>
+  <si>
+    <t>35464152011 35464152011</t>
+  </si>
+  <si>
+    <t>9132315505</t>
+  </si>
+  <si>
+    <t>36563201221</t>
+  </si>
+  <si>
+    <t>7852185006</t>
+  </si>
+  <si>
+    <t>iPhone 5 32GB</t>
+  </si>
+  <si>
+    <t>67093994121</t>
+  </si>
+  <si>
+    <t>9132223671</t>
+  </si>
+  <si>
+    <t>iPhone 7 Plus 32GB</t>
+  </si>
+  <si>
+    <t>169068211</t>
+  </si>
+  <si>
+    <t>21545071011</t>
+  </si>
+  <si>
+    <t>ONREG-19643</t>
+  </si>
+  <si>
+    <t>225356050 225356050</t>
+  </si>
+  <si>
+    <t>7035542525</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9+</t>
+  </si>
+  <si>
+    <t>22680340011</t>
+  </si>
+  <si>
+    <t>22680340011 22680340011</t>
+  </si>
+  <si>
+    <t>7037280699</t>
   </si>
   <si>
     <t>iPhone 7 32GB</t>
   </si>
   <si>
-    <t>72104659121</t>
-  </si>
-  <si>
-    <t>3102136261</t>
-  </si>
-  <si>
-    <t>99167677121</t>
-  </si>
-  <si>
-    <t>80339151221 80339151221</t>
-  </si>
-  <si>
-    <t>5188444640</t>
+    <t>39791884021</t>
+  </si>
+  <si>
+    <t>39791884021 39791884021</t>
+  </si>
+  <si>
+    <t>5712239447</t>
+  </si>
+  <si>
+    <t>51545071011</t>
+  </si>
+  <si>
+    <t>7038613637</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S9</t>
+  </si>
+  <si>
+    <t>80545071011</t>
+  </si>
+  <si>
+    <t>5712090166</t>
+  </si>
+  <si>
+    <t>iPhone X 64GB</t>
+  </si>
+  <si>
+    <t>00130829021</t>
+  </si>
+  <si>
+    <t>00130829021 00130829021</t>
+  </si>
+  <si>
+    <t>9725056134</t>
   </si>
   <si>
     <t>iPhone 8 Plus 64GB</t>
   </si>
   <si>
-    <t>434349902</t>
-  </si>
-  <si>
-    <t>05409669121</t>
-  </si>
-  <si>
-    <t>AugUser040</t>
-  </si>
-  <si>
-    <t>TEST5IPHONE AUG01</t>
-  </si>
-  <si>
-    <t>2402100539</t>
-  </si>
-  <si>
-    <t>Apple Watch Series 4</t>
-  </si>
-  <si>
-    <t>CDNVOI</t>
-  </si>
-  <si>
-    <t>54409669121</t>
-  </si>
-  <si>
-    <t>2402100538</t>
-  </si>
-  <si>
-    <t>79298669121</t>
-  </si>
-  <si>
-    <t>2402100473</t>
-  </si>
-  <si>
-    <t>iPhone 6 16GB</t>
+    <t>01236523121</t>
+  </si>
+  <si>
+    <t>01236523121 01236523121</t>
+  </si>
+  <si>
+    <t>9725058978</t>
+  </si>
+  <si>
+    <t>31270765121</t>
+  </si>
+  <si>
+    <t>38276602011 38276602011</t>
+  </si>
+  <si>
+    <t>9725055418</t>
+  </si>
+  <si>
+    <t>iPhone 6S 16GB</t>
+  </si>
+  <si>
+    <t>51295542021</t>
+  </si>
+  <si>
+    <t>9728217367</t>
+  </si>
+  <si>
+    <t>BYOSD iPhone 7 32GB</t>
+  </si>
+  <si>
+    <t>56259412011</t>
+  </si>
+  <si>
+    <t>56259412011 56259412011</t>
+  </si>
+  <si>
+    <t>2142895003</t>
+  </si>
+  <si>
+    <t>67333150221</t>
+  </si>
+  <si>
+    <t>67333150221 67333150221</t>
+  </si>
+  <si>
+    <t>9728144554</t>
+  </si>
+  <si>
+    <t>iPhone XS 64GB</t>
+  </si>
+  <si>
+    <t>79682024021</t>
+  </si>
+  <si>
+    <t>79682024021 79682024021</t>
+  </si>
+  <si>
+    <t>9728216112</t>
+  </si>
+  <si>
+    <t>LG V30+</t>
+  </si>
+  <si>
+    <t>225356050</t>
+  </si>
+  <si>
+    <t>13430032021</t>
+  </si>
+  <si>
+    <t>ONREG-22679</t>
+  </si>
+  <si>
+    <t>13430032021 13430032021</t>
+  </si>
+  <si>
+    <t>5107541020</t>
+  </si>
+  <si>
+    <t>35296929121</t>
+  </si>
+  <si>
+    <t>19448721011 19448721011</t>
+  </si>
+  <si>
+    <t>5719911970</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Note8</t>
+  </si>
+  <si>
+    <t>56496630121</t>
+  </si>
+  <si>
+    <t>56496630121 56496630121</t>
+  </si>
+  <si>
+    <t>5712680968</t>
+  </si>
+  <si>
+    <t>83033000221</t>
+  </si>
+  <si>
+    <t>83033000221 83033000221</t>
+  </si>
+  <si>
+    <t>7033980581</t>
+  </si>
+  <si>
+    <t>84199669121</t>
+  </si>
+  <si>
+    <t>7035868870</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S 6 32GB</t>
+  </si>
+  <si>
+    <t>97723299021</t>
+  </si>
+  <si>
+    <t>97723299021 97723299021</t>
+  </si>
+  <si>
+    <t>7033895571</t>
+  </si>
+  <si>
+    <t>97930140221</t>
+  </si>
+  <si>
+    <t>5713167184</t>
+  </si>
+  <si>
+    <t>15456191021</t>
+  </si>
+  <si>
+    <t>15456191021 15456191021</t>
+  </si>
+  <si>
+    <t>8168967754</t>
+  </si>
+  <si>
+    <t>iPhone 8 256GB</t>
   </si>
   <si>
     <t>{
   "contracts": [
     {
-      "contractType": "LOAN",
-      "contractId": "COS-F-618864",
-      "startDate": "2019-07-25",
-      "monthlyPayment": 6.67,
+      "contractType": "LEASE",
+      "contractId": "TM-L-128221978",
+      "startDate": "2019-01-08",
+      "monthlyPayment": 31.25,
       "upfrontPayment": 0.0,
-      "contractTermInMonths": 9,
-      "durationInMonths": 3,
-      "timeRemainingInMonths": 6,
-      "loanSequenceNumber": 53513947,
-      "itemId": "SPHJ727BK1",
-      "itemName": "SAM J727 BLK XCVR SGL",
-      "loanAmount": 60,
-      "loanPaidAmount": 20.01,
-      "payOffAmount": 39.99,
-      "canPayoffLoan": true,
-      "flexLoanInd": true,
-      "flexLeaseNumber": "COS-L-H88020184"
-    },
-    {
-      "contractType": "LEASE",
-      "contractId": "COS-L-H618866",
-      "startDate": "2019-07-15",
-      "monthlyPayment": 39.03,
-      "upfrontPayment": 81.0,
-      "contractTermInMonths": 12,
-      "durationInMonths": 3,
+      "contractTermInMonths": 18,
+      "durationInMonths": 9,
       "timeRemainingInMonths": 9,
-      "purchaseOptionPrice": 90,
-      "extendedMonthly": 45,
-      "leaseSequenceNumber": 53510850,
-      "flexLeaseInd": false,
-      "flexPurchasePreferenceInd": "NOT_SET",
-      "currentLeaseTermStatus": "Pre M2M",
-      "amtFromCustToPurchase": 90,
-      "leaseUnbilledAmount": 0,
-      "leaseBilledAmount": 0,
-      "canSetPurchaseIntent": false,
-      "canSignIBPPO": false,
-      "canCancelIBPPO": false,
-      "canPayoffLease": false,
-      "itemId": "190198452023",
-      "itemName": "IPH 8 SILVER 64 KIT"
-    }
-  ]
-}</t>
-  </si>
-  <si>
-    <t>{
-  "contracts": [
-    {
-      "contractType": "LEASE",
-      "contractId": "PR-L-H638104",
-      "startDate": "2019-08-16",
-      "monthlyPayment": 16.23,
-      "upfrontPayment": 0.0,
-      "contractTermInMonths": 24,
-      "durationInMonths": 2,
-      "timeRemainingInMonths": 22,
-      "purchaseOptionPrice": 75,
-      "extendedMonthly": 18.75,
-      "leaseSequenceNumber": 53518075,
+      "purchaseOptionPrice": 187.49,
+      "extendedMonthly": 31.25,
+      "leaseSequenceNumber": 65794632,
       "flexLeaseInd": true,
       "flexPurchasePreferenceInd": "NOT_SET",
       "currentLeaseTermStatus": "Pre Term",
-      "amtFromCustToPurchase": 365.15,
-      "leaseUnbilledAmount": 351.69,
+      "amtFromCustToPurchase": 501.94,
+      "leaseUnbilledAmount": 281.25,
+      "leaseBilledAmount": 33.2,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198778581",
+      "itemName": "IPHONE XR RD 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "TM-L-128221972",
+      "startDate": "2019-01-08",
+      "monthlyPayment": 31.25,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 9,
+      "timeRemainingInMonths": 9,
+      "purchaseOptionPrice": 187.49,
+      "extendedMonthly": 31.25,
+      "leaseSequenceNumber": 65794631,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 468.74,
+      "leaseUnbilledAmount": 281.25,
       "leaseBilledAmount": 0,
       "canSetPurchaseIntent": true,
       "canSignIBPPO": false,
       "canCancelIBPPO": false,
       "canPayoffLease": true,
-      "itemId": "IPH732GBSIL1",
-      "itemName": "IPHONE 7 SILVER 32GB SGL"
+      "itemId": "190198778567",
+      "itemName": "IPHONE XR BK 64 KIT"
     }
   ]
 }</t>
@@ -230,48 +463,545 @@
     <t>{
   "contracts": [
     {
-      "contractType": "LOAN",
-      "contractId": "COS-F-619136",
-      "startDate": "2019-07-25",
-      "monthlyPayment": 6.67,
+      "contractType": "LEASE",
+      "contractId": "TM-L-128221860",
+      "startDate": "2019-01-08",
+      "monthlyPayment": 45.84,
       "upfrontPayment": 0.0,
-      "contractTermInMonths": 9,
-      "durationInMonths": 3,
-      "timeRemainingInMonths": 6,
-      "loanSequenceNumber": 53513948,
-      "itemId": "SPHJ727BK1",
-      "itemName": "SAM J727 BLK XCVR SGL",
-      "loanAmount": 60,
-      "loanPaidAmount": 20.01,
-      "payOffAmount": 39.99,
-      "canPayoffLoan": true,
-      "flexLoanInd": true,
-      "flexLeaseNumber": "COS-L-H88020428"
-    },
-    {
-      "contractType": "LEASE",
-      "contractId": "COS-L-H619138",
-      "startDate": "2019-07-16",
-      "monthlyPayment": 39.03,
-      "upfrontPayment": 81.0,
-      "contractTermInMonths": 12,
-      "durationInMonths": 3,
+      "contractTermInMonths": 18,
+      "durationInMonths": 9,
       "timeRemainingInMonths": 9,
-      "purchaseOptionPrice": 90,
-      "extendedMonthly": 45,
-      "leaseSequenceNumber": 53510939,
+      "purchaseOptionPrice": 274.87,
+      "extendedMonthly": 45.84,
+      "leaseSequenceNumber": 65794636,
       "flexLeaseInd": true,
       "flexPurchasePreferenceInd": "NOT_SET",
       "currentLeaseTermStatus": "Pre Term",
-      "amtFromCustToPurchase": 435.76,
-      "leaseUnbilledAmount": 350.25,
+      "amtFromCustToPurchase": 736.14,
+      "leaseUnbilledAmount": 412.56,
+      "leaseBilledAmount": 48.71,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198786227",
+      "itemName": "IPHONE XSM GD 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LOAN",
+      "contractId": "TM-119938736",
+      "startDate": "2018-11-06",
+      "monthlyPayment": 6.25,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 24,
+      "durationInMonths": 11,
+      "timeRemainingInMonths": 13,
+      "loanSequenceNumber": 62505277,
+      "itemId": "LGLK460TAB",
+      "itemName": "LG LGLK460 BLK TAB",
+      "loanAmount": 149.99,
+      "loanPaidAmount": 75.00,
+      "payOffAmount": 74.99,
+      "canPayoffLoan": true,
+      "flexLoanInd": false
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "TM-L-119938556",
+      "startDate": "2018-11-06",
+      "monthlyPayment": 31.25,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 11,
+      "timeRemainingInMonths": 7,
+      "purchaseOptionPrice": 187.49,
+      "extendedMonthly": 31.25,
+      "leaseSequenceNumber": 62506343,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 408.19,
+      "leaseUnbilledAmount": 187.5,
+      "leaseBilledAmount": 33.2,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198778567",
+      "itemName": "IPHONE XR BK 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-119485170",
+      "startDate": "2018-11-02",
+      "monthlyPayment": 45.84,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 11,
+      "timeRemainingInMonths": 7,
+      "purchaseOptionPrice": 274.87,
+      "extendedMonthly": 45.84,
+      "leaseSequenceNumber": 62311920,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 598.62,
+      "leaseUnbilledAmount": 275.04,
+      "leaseBilledAmount": 48.71,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198786227",
+      "itemName": "IPHONE XSM GD 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-100953612",
+      "startDate": "2018-04-30",
+      "monthlyPayment": 14.59,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 18,
+      "timeRemainingInMonths": 0,
+      "purchaseOptionPrice": 174.93,
+      "extendedMonthly": 29.17,
+      "leaseSequenceNumber": 54705402,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre M2M",
+      "amtFromCustToPurchase": 174.93,
+      "leaseUnbilledAmount": 0,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": true,
+      "canPayoffLease": true,
+      "itemId": "190198452030",
+      "itemName": "IPH 8 GOLD 64 KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 174.93,
+        "installmentAmount": 29.16,
+        "lastInstallmentAmount": 29.13,
+        "firstInstallmentDueDate": "2019-10-31",
+        "lastInstallmentDueDate": "2020-04-30",
+        "status": "P",
+        "loanNumber": "WEB-F-656190"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-109079112",
+      "startDate": "2018-07-26",
+      "monthlyPayment": 19.0,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 15,
+      "timeRemainingInMonths": 3,
+      "purchaseOptionPrice": 228,
+      "extendedMonthly": 38,
+      "leaseSequenceNumber": 58075680,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 305.19,
+      "leaseUnbilledAmount": 57,
+      "leaseBilledAmount": 20.19,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "SPHG965UBLU",
+      "itemName": "SAMSUNG G965U BLU KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "WEB-L-125555588",
+      "startDate": "2018-12-18",
+      "monthlyPayment": 15.63,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 10,
+      "timeRemainingInMonths": 8,
+      "purchaseOptionPrice": 187.49,
+      "extendedMonthly": 31.25,
+      "leaseSequenceNumber": 64714399,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 329.05,
+      "leaseUnbilledAmount": 124.95,
+      "leaseBilledAmount": 16.61,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198778567",
+      "itemName": "IPHONE XR BK 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-101885534",
+      "startDate": "2018-05-11",
+      "monthlyPayment": 16.5,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 17,
+      "timeRemainingInMonths": 1,
+      "purchaseOptionPrice": 198,
+      "extendedMonthly": 33,
+      "leaseSequenceNumber": 55087064,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre M2M",
+      "amtFromCustToPurchase": 215.53,
+      "leaseUnbilledAmount": 0,
+      "leaseBilledAmount": 17.53,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": true,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "SPHG960UBLK",
+      "itemName": "SAMSUNG G960U BLK KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 198,
+        "installmentAmount": 33.00,
+        "lastInstallmentAmount": 33.00,
+        "firstInstallmentDueDate": "2019-11-11",
+        "lastInstallmentDueDate": "2020-05-11"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-109079280",
+      "startDate": "2018-07-26",
+      "monthlyPayment": 20.84,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 15,
+      "timeRemainingInMonths": 3,
+      "purchaseOptionPrice": 249.93,
+      "extendedMonthly": 41.67,
+      "leaseSequenceNumber": 58075683,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 334.50,
+      "leaseUnbilledAmount": 62.43,
+      "leaseBilledAmount": 22.14,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198459589",
+      "itemName": "IPH X SILVER 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "WEB-L-105488334",
+      "startDate": "2018-06-18",
+      "monthlyPayment": 16.67,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 16,
+      "timeRemainingInMonths": 2,
+      "purchaseOptionPrice": 199.87,
+      "extendedMonthly": 33.34,
+      "leaseSequenceNumber": 56595967,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 250.92,
+      "leaseUnbilledAmount": 33.34,
+      "leaseBilledAmount": 17.71,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": true,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198456274",
+      "itemName": "IPH 8P GRAY 64 KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 199.87,
+        "installmentAmount": 33.32,
+        "lastInstallmentAmount": 33.27,
+        "firstInstallmentDueDate": "2019-12-18",
+        "lastInstallmentDueDate": "2020-06-18"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "WEB-L-111679026",
+      "startDate": "2018-08-22",
+      "monthlyPayment": 20.84,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 14,
+      "timeRemainingInMonths": 4,
+      "purchaseOptionPrice": 249.93,
+      "extendedMonthly": 41.67,
+      "leaseSequenceNumber": 59148826,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 355.34,
+      "leaseUnbilledAmount": 83.27,
+      "leaseBilledAmount": 22.14,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198459572",
+      "itemName": "IPH X GRAY 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "WEB-L-115560148",
+      "startDate": "2018-09-26",
+      "monthlyPayment": 20.84,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 13,
+      "timeRemainingInMonths": 5,
+      "purchaseOptionPrice": 249.93,
+      "extendedMonthly": 41.67,
+      "leaseSequenceNumber": 60707382,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 376.18,
+      "leaseUnbilledAmount": 104.11,
+      "leaseBilledAmount": 22.14,
+      "canSetPurchaseIntent": true,
+      "canSignIBPPO": false,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198790224",
+      "itemName": "IPHONE XS SIL 64 KIT"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-102253198",
+      "startDate": "2018-05-14",
+      "monthlyPayment": 12.0,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 17,
+      "timeRemainingInMonths": 1,
+      "purchaseOptionPrice": 228,
+      "extendedMonthly": 38,
+      "leaseSequenceNumber": 55238941,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 252.75,
+      "leaseUnbilledAmount": 12,
+      "leaseBilledAmount": 12.75,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": true,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "LGLS9982BLK",
+      "itemName": "LG LS998 128GB BLK KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 228,
+        "installmentAmount": 38.00,
+        "lastInstallmentAmount": 38.00,
+        "firstInstallmentDueDate": "2019-11-14",
+        "lastInstallmentDueDate": "2020-05-14"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-89970456",
+      "startDate": "2018-01-13",
+      "monthlyPayment": 33.34,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 21,
+      "timeRemainingInMonths": 0,
+      "purchaseOptionPrice": 199.87,
+      "extendedMonthly": 33.34,
+      "leaseSequenceNumber": 50206617,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "fairMarketValue": 199.87,
+      "currentLeaseTermStatus": "M2M",
+      "amtFromCustToPurchase": 235.29,
+      "leaseUnbilledAmount": 0,
+      "leaseBilledAmount": 35.42,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": true,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198456298",
+      "itemName": "IPH 8P GOLD 64 KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 199.87,
+        "installmentAmount": 33.32,
+        "lastInstallmentAmount": 33.27,
+        "firstInstallmentDueDate": "2019-11-15",
+        "lastInstallmentDueDate": "2020-05-15"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-90346844",
+      "startDate": "2018-01-17",
+      "monthlyPayment": 40.0,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 21,
+      "timeRemainingInMonths": 0,
+      "purchaseOptionPrice": 240,
+      "extendedMonthly": 40,
+      "leaseSequenceNumber": 50366632,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "fairMarketValue": 115,
+      "currentLeaseTermStatus": "M2M",
+      "amtFromCustToPurchase": 133.88,
+      "leaseUnbilledAmount": 0,
+      "leaseBilledAmount": 18.88,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": true,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "SPHN950UBLK",
+      "itemName": "SAMSUNG N950U BLK KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 115,
+        "installmentAmount": 19.17,
+        "lastInstallmentAmount": 19.15,
+        "firstInstallmentDueDate": "2019-11-06",
+        "lastInstallmentDueDate": "2020-05-06"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-652934",
+      "startDate": "2019-09-20",
+      "monthlyPayment": 37.5,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 1,
+      "timeRemainingInMonths": 17,
+      "purchaseOptionPrice": 224.99,
+      "extendedMonthly": 37.5,
+      "leaseSequenceNumber": 53522737,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 862.49,
+      "leaseUnbilledAmount": 637.5,
       "leaseBilledAmount": 0,
       "canSetPurchaseIntent": true,
       "canSignIBPPO": false,
       "canCancelIBPPO": false,
       "canPayoffLease": true,
-      "itemId": "190198452023",
-      "itemName": "IPH 8 SILVER 64 KIT"
+      "itemId": "190198459572",
+      "itemName": "IPH X GRAY 64 KIT"
     }
   ]
 }</t>
@@ -281,28 +1011,81 @@
   "contracts": [
     {
       "contractType": "LEASE",
-      "contractId": "PR-L-H638102",
-      "startDate": "2019-08-16",
-      "monthlyPayment": 14.54,
+      "contractId": "TM-L-104979478",
+      "startDate": "2018-06-13",
+      "monthlyPayment": 41.67,
       "upfrontPayment": 0.0,
-      "contractTermInMonths": 24,
-      "durationInMonths": 2,
-      "timeRemainingInMonths": 22,
-      "purchaseOptionPrice": 75,
-      "extendedMonthly": 18.75,
-      "leaseSequenceNumber": 53518074,
+      "contractTermInMonths": 18,
+      "durationInMonths": 16,
+      "timeRemainingInMonths": 2,
+      "purchaseOptionPrice": 249.93,
+      "extendedMonthly": 41.67,
+      "leaseSequenceNumber": 56381639,
       "flexLeaseInd": true,
       "flexPurchasePreferenceInd": "NOT_SET",
       "currentLeaseTermStatus": "Pre Term",
-      "amtFromCustToPurchase": 362.21,
-      "leaseUnbilledAmount": 317.51,
+      "amtFromCustToPurchase": 333.27,
+      "leaseUnbilledAmount": 83.34,
+      "leaseBilledAmount": 0,
+      "canSetPurchaseIntent": false,
+      "canSignIBPPO": true,
+      "canCancelIBPPO": false,
+      "canPayoffLease": true,
+      "itemId": "190198459589",
+      "itemName": "IPH X SILVER 64 KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 249.93,
+        "installmentAmount": 41.66,
+        "lastInstallmentAmount": 41.63,
+        "firstInstallmentDueDate": "2019-12-13",
+        "lastInstallmentDueDate": "2020-06-13"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "SUBSIDY",
+      "contractTermInMonths": 24,
+      "startDate": "2019-09-05",
+      "durationInMonths": 1,
+      "timeRemainingInMonths": 23,
+      "endDate": "2021-09-04"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "contracts": [
+    {
+      "contractType": "LEASE",
+      "contractId": "COS-L-127500010",
+      "startDate": "2018-12-31",
+      "monthlyPayment": 38.0,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 9,
+      "timeRemainingInMonths": 9,
+      "purchaseOptionPrice": 228,
+      "extendedMonthly": 38,
+      "leaseSequenceNumber": 65484903,
+      "flexLeaseInd": true,
+      "flexPurchasePreferenceInd": "NOT_SET",
+      "currentLeaseTermStatus": "Pre Term",
+      "amtFromCustToPurchase": 532,
+      "leaseUnbilledAmount": 304,
       "leaseBilledAmount": 0,
       "canSetPurchaseIntent": true,
       "canSignIBPPO": false,
       "canCancelIBPPO": false,
       "canPayoffLease": true,
-      "itemId": "IPH732GBSIL1",
-      "itemName": "IPHONE 7 SILVER 32GB SGL"
+      "itemId": "SPHG965UBLK",
+      "itemName": "SAMSUNG G965U BLK KIT"
     }
   ]
 }</t>
@@ -312,28 +1095,28 @@
   "contracts": [
     {
       "contractType": "LEASE",
-      "contractId": "COS-L-H619198",
-      "startDate": "2019-07-16",
-      "monthlyPayment": 39.03,
-      "upfrontPayment": 81.0,
-      "contractTermInMonths": 12,
-      "durationInMonths": 3,
-      "timeRemainingInMonths": 9,
-      "purchaseOptionPrice": 90,
-      "extendedMonthly": 45,
-      "leaseSequenceNumber": 53510954,
+      "contractId": "TM-L-113070860",
+      "startDate": "2018-09-05",
+      "monthlyPayment": 33.34,
+      "upfrontPayment": 0.0,
+      "contractTermInMonths": 18,
+      "durationInMonths": 13,
+      "timeRemainingInMonths": 5,
+      "purchaseOptionPrice": 199.87,
+      "extendedMonthly": 33.34,
+      "leaseSequenceNumber": 59744110,
       "flexLeaseInd": true,
       "flexPurchasePreferenceInd": "NOT_SET",
       "currentLeaseTermStatus": "Pre Term",
-      "amtFromCustToPurchase": 435.76,
-      "leaseUnbilledAmount": 350.25,
+      "amtFromCustToPurchase": 333.23,
+      "leaseUnbilledAmount": 133.36,
       "leaseBilledAmount": 0,
       "canSetPurchaseIntent": true,
       "canSignIBPPO": false,
       "canCancelIBPPO": false,
       "canPayoffLease": true,
-      "itemId": "190198452023",
-      "itemName": "IPH 8 SILVER 64 KIT"
+      "itemId": "190198746726",
+      "itemName": "IPHONE 8P RED 64 KIT"
     }
   ]
 }</t>
@@ -341,36 +1124,54 @@
   <si>
     <t>{
   "contracts": [
-  ]
-}</t>
-  </si>
-  <si>
-    <t>{
-  "contracts": [
     {
       "contractType": "LEASE",
-      "contractId": "LSE-SDR001",
-      "startDate": "2018-03-18",
-      "monthlyPayment": 67.75,
-      "upfrontPayment": 67.75,
+      "contractId": "COS-L-90164942",
+      "startDate": "2018-01-15",
+      "monthlyPayment": 29.17,
+      "upfrontPayment": 150.0,
       "contractTermInMonths": 18,
-      "durationInMonths": 19,
+      "durationInMonths": 21,
       "timeRemainingInMonths": 0,
-      "purchaseOptionPrice": 0,
-      "extendedMonthly": 67.75,
-      "leaseSequenceNumber": 53517125,
-      "flexLeaseInd": false,
+      "purchaseOptionPrice": 174.93,
+      "extendedMonthly": 29.17,
+      "leaseSequenceNumber": 50290081,
+      "flexLeaseInd": true,
       "flexPurchasePreferenceInd": "NOT_SET",
-      "currentLeaseTermStatus": "Pre Term",
-      "amtFromCustToPurchase": 1219.5,
-      "leaseUnbilledAmount": 1219.5,
-      "leaseBilledAmount": 0,
+      "fairMarketValue": 174.93,
+      "currentLeaseTermStatus": "M2M",
+      "amtFromCustToPurchase": 205.92,
+      "leaseUnbilledAmount": 0,
+      "leaseBilledAmount": 30.99,
       "canSetPurchaseIntent": false,
-      "canSignIBPPO": false,
+      "canSignIBPPO": true,
       "canCancelIBPPO": false,
       "canPayoffLease": true,
-      "itemId": "IPH7128BYBK1",
-      "itemName": "BYOSD IP 7 BLK 128 SGL"
+      "itemId": "190198453518",
+      "itemName": "IPH 8 GRAY 256 KIT",
+      "ppoContractDetails": {
+        "term": 6,
+        "loanAmount": 174.93,
+        "installmentAmount": 29.16,
+        "lastInstallmentAmount": 29.13,
+        "firstInstallmentDueDate": "2019-11-06",
+        "lastInstallmentDueDate": "2020-05-06"
+      }
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "source": "SubDetails",
+  "errors": [
+    {
+      "errorCode": "704",
+      "errorMessage": "business_rule_exception-Server.704:Invalid ESN : ESN Not Found"
+    },
+    {
+      "errorCode": "Server.704",
+      "errorMessage": "Application processing error"
     }
   ]
 }</t>
@@ -378,86 +1179,11 @@
   <si>
     <t>{
   "lease": false,
-  "leaseEligibleDate": "2020-07-01",
+  "leaseEligibleDate": "2020-01-01",
   "installmentBilling": false,
-  "installmentBillingEligibleDate": "2020-07-01",
+  "installmentBillingEligibleDate": "2020-01-01",
   "subsidy": false,
-  "subsidyEligibleDate": "2021-01-01",
-  "eligible": false,
-  "earlyUpgradeEligible": false,
-  "hasMultipleContracts": true,
-  "jumpEligibleCustomer": false,
-  "jumpOnDemandEligible": false
-}</t>
-  </si>
-  <si>
-    <t>{
-  "lease": false,
-  "leaseEligibleDate": "2020-08-01",
-  "installmentBilling": false,
-  "installmentBillingEligibleDate": "2020-08-01",
-  "subsidy": false,
-  "subsidyEligibleDate": "2021-08-01",
-  "eligible": false,
-  "earlyUpgradeEligible": false,
-  "hasMultipleContracts": false,
-  "jumpEligibleCustomer": false,
-  "jumpOnDemandEligible": false
-}</t>
-  </si>
-  <si>
-    <t>{
-  "lease": false,
-  "leaseEligibleDate": "2021-08-01",
-  "installmentBilling": false,
-  "installmentBillingEligibleDate": "2021-08-01",
-  "subsidy": false,
-  "subsidyEligibleDate": "2021-08-01",
-  "eligible": false,
-  "earlyUpgradeEligible": false,
-  "hasMultipleContracts": false,
-  "jumpEligibleCustomer": false,
-  "jumpOnDemandEligible": false
-}</t>
-  </si>
-  <si>
-    <t>{
-  "lease": false,
-  "leaseEligibleDate": "2021-01-01",
-  "installmentBilling": false,
-  "installmentBillingEligibleDate": "2021-01-01",
-  "subsidy": false,
-  "subsidyEligibleDate": "2021-01-01",
-  "eligible": false,
-  "earlyUpgradeEligible": false,
-  "hasMultipleContracts": false,
-  "jumpEligibleCustomer": false,
-  "jumpOnDemandEligible": false
-}</t>
-  </si>
-  <si>
-    <t>{
-  "lease": false,
-  "leaseEligibleDate": "2020-10-01",
-  "installmentBilling": false,
-  "installmentBillingEligibleDate": "2020-10-01",
-  "subsidy": false,
-  "subsidyEligibleDate": "2020-10-01",
-  "eligible": false,
-  "earlyUpgradeEligible": false,
-  "hasMultipleContracts": false,
-  "jumpEligibleCustomer": false,
-  "jumpOnDemandEligible": false
-}</t>
-  </si>
-  <si>
-    <t>{
-  "lease": false,
-  "leaseEligibleDate": "2021-10-01",
-  "installmentBilling": false,
-  "installmentBillingEligibleDate": "2021-10-01",
-  "subsidy": false,
-  "subsidyEligibleDate": "2021-10-01",
+  "subsidyEligibleDate": "2020-01-01",
   "eligible": false,
   "earlyUpgradeEligible": false,
   "hasMultipleContracts": false,
@@ -474,6 +1200,32 @@
   "installmentBillingEligibleDate": "TODAY",
   "subsidy": true,
   "subsidyEligibleDate": "TODAY"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "source": "SubDetails",
+  "errors": [
+    {
+      "errorCode": "400",
+      "errorMessage": "http.badrequest"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "lease": false,
+  "leaseEligibleDate": "2020-06-01",
+  "installmentBilling": false,
+  "installmentBillingEligibleDate": "2020-06-01",
+  "subsidy": false,
+  "subsidyEligibleDate": "2020-12-01",
+  "eligible": false,
+  "earlyUpgradeEligible": false,
+  "hasMultipleContracts": false,
+  "jumpEligibleCustomer": false,
+  "jumpOnDemandEligible": false
 }</t>
   </si>
 </sst>
@@ -519,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -583,10 +1335,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -609,16 +1361,16 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
@@ -626,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -638,19 +1390,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
@@ -676,13 +1428,13 @@
         <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
@@ -690,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -699,10 +1451,10 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -711,10 +1463,10 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
@@ -722,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -731,118 +1483,854 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="J10" t="s">
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>134</v>
+      </c>
+      <c r="J21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>146</v>
+      </c>
+      <c r="J28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>149</v>
+      </c>
+      <c r="J31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="287">
   <si>
     <t>deviceType</t>
   </si>
@@ -212,36 +212,36 @@
     <t>76652047121</t>
   </si>
   <si>
+    <t>118789584</t>
+  </si>
+  <si>
+    <t>089458280007705651</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"442021532"}</t>
+  </si>
+  <si>
+    <t>07079671221 07079671221</t>
+  </si>
+  <si>
+    <t>8596288568</t>
+  </si>
+  <si>
+    <t>LGQ710ALBLK1</t>
+  </si>
+  <si>
+    <t>LG Stylo 4</t>
+  </si>
+  <si>
+    <t>07079671221</t>
+  </si>
+  <si>
+    <t>127188714</t>
+  </si>
+  <si>
     <t>SUSPENDED</t>
   </si>
   <si>
-    <t>118789584</t>
-  </si>
-  <si>
-    <t>089458280007705651</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"442021532"}</t>
-  </si>
-  <si>
-    <t>07079671221 07079671221</t>
-  </si>
-  <si>
-    <t>8596288568</t>
-  </si>
-  <si>
-    <t>LGQ710ALBLK1</t>
-  </si>
-  <si>
-    <t>LG Stylo 4</t>
-  </si>
-  <si>
-    <t>07079671221</t>
-  </si>
-  <si>
-    <t>127188714</t>
-  </si>
-  <si>
     <t>089594727204215090</t>
   </si>
   <si>
@@ -434,7 +434,7 @@
     <t>2019-11-18</t>
   </si>
   <si>
-    <t>-9</t>
+    <t>-11</t>
   </si>
   <si>
     <t>2019-12-17</t>
@@ -455,7 +455,7 @@
     <t>2019-08-29</t>
   </si>
   <si>
-    <t>-90</t>
+    <t>-92</t>
   </si>
   <si>
     <t>2019-12-28</t>
@@ -473,7 +473,7 @@
     <t>2019-12-07</t>
   </si>
   <si>
-    <t>10</t>
+    <t>8</t>
   </si>
   <si>
     <t>89.73</t>
@@ -485,7 +485,16 @@
     <t>36</t>
   </si>
   <si>
-    <t>143.26</t>
+    <t>-359.35</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>-239.56666666666666</t>
+  </si>
+  <si>
+    <t>165.0</t>
   </si>
   <si>
     <t>72.99</t>
@@ -512,7 +521,7 @@
     <t>2019-12-13</t>
   </si>
   <si>
-    <t>16</t>
+    <t>14</t>
   </si>
   <si>
     <t>96.04</t>
@@ -539,16 +548,19 @@
     <t>207.97</t>
   </si>
   <si>
-    <t>1588.0</t>
+    <t>1578.0</t>
   </si>
   <si>
     <t>1588</t>
   </si>
   <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2019-10-25</t>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2019-11-28</t>
   </si>
   <si>
     <t>148</t>
@@ -593,21 +605,63 @@
     <t>autopayInd</t>
   </si>
   <si>
+    <t>ARRANGEMENT</t>
+  </si>
+  <si>
+    <t>167.54</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>1881</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD</t>
+  </si>
+  <si>
+    <t>1200776340</t>
+  </si>
+  <si>
+    <t>180627759</t>
+  </si>
+  <si>
+    <t>Visa-*1881</t>
+  </si>
+  <si>
+    <t>uPq68I8DsEwf9H6BaDHFS6qCAITw8RBy6tjx</t>
+  </si>
+  <si>
+    <t>12/21</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>1200776341</t>
+  </si>
+  <si>
     <t>AUTOPAY</t>
   </si>
   <si>
     <t>6778</t>
   </si>
   <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>CREDIT_CARD</t>
-  </si>
-  <si>
     <t>1200774166</t>
   </si>
   <si>
+    <t>167.53</t>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>1200776342</t>
+  </si>
+  <si>
     <t>3627</t>
   </si>
   <si>
@@ -656,9 +710,6 @@
     <t>01/22</t>
   </si>
   <si>
-    <t>ARRANGEMENT</t>
-  </si>
-  <si>
     <t>2019-11-24</t>
   </si>
   <si>
@@ -746,9 +797,6 @@
     <t>mbLOwywdmmAKgd5WaCUsup5PU25HH7sYifGU</t>
   </si>
   <si>
-    <t>12/21</t>
-  </si>
-  <si>
     <t>Visa*4113</t>
   </si>
   <si>
@@ -782,19 +830,10 @@
     <t>66223</t>
   </si>
   <si>
-    <t>uPq68I8DsEwf9H6BaDHFS6qCAITw8RBy6tjx</t>
-  </si>
-  <si>
     <t>X9XP878DMYYI1881</t>
   </si>
   <si>
-    <t>1881</t>
-  </si>
-  <si>
-    <t>Visa-*1881</t>
-  </si>
-  <si>
-    <t>66251</t>
+    <t>2109, Fox Drive</t>
   </si>
   <si>
     <t>WICRHQSZ7AE46011</t>
@@ -1194,13 +1233,13 @@
         <v>24</v>
       </c>
       <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
         <v>65</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -1208,43 +1247,43 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
       </c>
       <c r="I9" t="s">
         <v>46</v>
       </c>
       <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
         <v>73</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" t="s">
-        <v>65</v>
-      </c>
       <c r="M9" t="s">
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1255,13 +1294,13 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1279,16 +1318,16 @@
         <v>80</v>
       </c>
       <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
       <c r="M10" t="s">
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1299,13 +1338,13 @@
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>82</v>
@@ -1323,16 +1362,16 @@
         <v>85</v>
       </c>
       <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
       <c r="M11" t="s">
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
@@ -1414,7 +1453,7 @@
         <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
@@ -1458,7 +1497,7 @@
         <v>101</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M14" t="s">
         <v>26</v>
@@ -1502,7 +1541,7 @@
         <v>101</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="M15" t="s">
         <v>26</v>
@@ -1899,19 +1938,19 @@
         <v>156</v>
       </c>
       <c r="Q6" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="R6" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="S6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="T6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="U6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -1919,22 +1958,22 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H7" t="s">
         <v>134</v>
@@ -1952,13 +1991,13 @@
         <v>151</v>
       </c>
       <c r="M7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N7" t="s">
         <v>154</v>
       </c>
       <c r="O7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P7" t="s">
         <v>24</v>
@@ -1976,7 +2015,7 @@
         <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -1984,22 +2023,22 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
         <v>134</v>
@@ -2008,22 +2047,22 @@
         <v>134</v>
       </c>
       <c r="J8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P8" t="s">
         <v>24</v>
@@ -2049,22 +2088,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
         <v>134</v>
@@ -2082,16 +2121,16 @@
         <v>151</v>
       </c>
       <c r="M9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N9" t="s">
         <v>154</v>
       </c>
       <c r="O9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" t="s">
         <v>172</v>
-      </c>
-      <c r="P9" t="s">
-        <v>169</v>
       </c>
       <c r="Q9" t="s">
         <v>134</v>
@@ -2103,7 +2142,7 @@
         <v>134</v>
       </c>
       <c r="T9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="U9" t="s">
         <v>101</v>
@@ -2114,28 +2153,28 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
         <v>134</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="J10" t="s">
         <v>138</v>
@@ -2147,13 +2186,13 @@
         <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
@@ -2171,7 +2210,7 @@
         <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2220,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2189,40 +2228,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M1" t="s">
         <v>13</v>
@@ -2394,107 +2433,107 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" t="s">
         <v>200</v>
       </c>
-      <c r="E8" t="s">
-        <v>194</v>
-      </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -2512,130 +2551,253 @@
         <v>24</v>
       </c>
       <c r="M8" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" t="s">
         <v>203</v>
       </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
         <v>220</v>
       </c>
-      <c r="K11" t="s">
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" t="s">
         <v>221</v>
       </c>
-      <c r="L11" t="s">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" t="s">
+        <v>229</v>
+      </c>
+      <c r="K13" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" t="s">
         <v>17</v>
       </c>
-      <c r="M11" t="s">
-        <v>179</v>
+      <c r="M14" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2656,55 +2818,55 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="J1" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K1" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L1" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M1" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="N1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="O1" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P1" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q1" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="R1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="S1" t="s">
         <v>13</v>
@@ -2712,25 +2874,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -2742,19 +2904,19 @@
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="N2" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="O2" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P2" t="s">
         <v>24</v>
@@ -2763,7 +2925,7 @@
         <v>26</v>
       </c>
       <c r="R2" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="S2" t="s">
         <v>27</v>
@@ -2830,25 +2992,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -2860,19 +3022,19 @@
         <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="N4" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="O4" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="P4" t="s">
         <v>24</v>
@@ -2889,25 +3051,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -2919,19 +3081,19 @@
         <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M5" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="N5" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="O5" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="P5" t="s">
         <v>24</v>
@@ -2940,7 +3102,7 @@
         <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="S5" t="s">
         <v>56</v>
@@ -2948,25 +3110,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="G6" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -2978,19 +3140,19 @@
         <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="L6" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="N6" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
@@ -2999,10 +3161,10 @@
         <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -3061,7 +3223,7 @@
         <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -3184,25 +3346,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
         <v>17</v>
@@ -3211,22 +3373,22 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="K10" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="L10" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="M10" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="N10" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O10" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
@@ -3238,30 +3400,30 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -3270,22 +3432,22 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="K11" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="L11" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="M11" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="N11" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O11" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="P11" t="s">
         <v>24</v>
@@ -3297,30 +3459,30 @@
         <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
@@ -3329,22 +3491,22 @@
         <v>26</v>
       </c>
       <c r="J12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="K12" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L12" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="M12" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="N12" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="O12" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="P12" t="s">
         <v>24</v>
@@ -3353,10 +3515,10 @@
         <v>26</v>
       </c>
       <c r="R12" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="S12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
